--- a/Dokumente/Notizen.xlsx
+++ b/Dokumente/Notizen.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$B$2:$B$30</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
   <si>
     <t>Modalwert</t>
   </si>
@@ -96,19 +100,112 @@
   </si>
   <si>
     <t>Niederschlag</t>
+  </si>
+  <si>
+    <t>Cron-Job</t>
+  </si>
+  <si>
+    <t>JPG-Datei</t>
+  </si>
+  <si>
+    <t>WGET</t>
+  </si>
+  <si>
+    <t>Bash-Skript</t>
+  </si>
+  <si>
+    <t>ASTRA</t>
+  </si>
+  <si>
+    <t>MVK = mobile video kamera</t>
+  </si>
+  <si>
+    <t>dpi</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Exif</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>XAML</t>
+  </si>
+  <si>
+    <t>WPF</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>.NET</t>
+  </si>
+  <si>
+    <t>LINQ to SQL</t>
+  </si>
+  <si>
+    <t>Serialisierung</t>
+  </si>
+  <si>
+    <t>Deserialisierung</t>
+  </si>
+  <si>
+    <t>OpenCV</t>
+  </si>
+  <si>
+    <t>Emgu CV</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>GutHub</t>
+  </si>
+  <si>
+    <t>MDF</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>SQL-Server</t>
+  </si>
+  <si>
+    <t>Bitmaske</t>
+  </si>
+  <si>
+    <t>Serialisiert</t>
+  </si>
+  <si>
+    <t>OneDrive</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>MatLab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -164,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -173,29 +270,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,350 +747,350 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="7">
         <v>57</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="7">
         <v>255</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="11">
+      <c r="C3" s="12"/>
+      <c r="D3" s="7">
         <v>56.39</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="11">
+      <c r="G3" s="12"/>
+      <c r="H3" s="7">
         <v>254.96</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="11">
+      <c r="C4" s="12"/>
+      <c r="D4" s="7">
         <v>56</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="11">
+      <c r="G4" s="12"/>
+      <c r="H4" s="7">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="11">
+      <c r="C5" s="12"/>
+      <c r="D5" s="7">
         <v>41</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="11">
+      <c r="G5" s="12"/>
+      <c r="H5" s="7">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="11">
+      <c r="C6" s="12"/>
+      <c r="D6" s="7">
         <v>86</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="11">
+      <c r="G6" s="12"/>
+      <c r="H6" s="7">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11">
+      <c r="C7" s="12"/>
+      <c r="D7" s="7">
         <v>5.55</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="11">
+      <c r="G7" s="12"/>
+      <c r="H7" s="7">
         <v>0.49</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11">
+      <c r="C8" s="12"/>
+      <c r="D8" s="7">
         <v>0.35</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="11">
+      <c r="G8" s="12"/>
+      <c r="H8" s="7">
         <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>81</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="8">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="12">
+      <c r="C10" s="13"/>
+      <c r="D10" s="8">
         <v>79.75</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12">
+      <c r="G10" s="13"/>
+      <c r="H10" s="8">
         <v>249.56</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12">
+      <c r="C11" s="13"/>
+      <c r="D11" s="8">
         <v>79</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="12">
+      <c r="G11" s="13"/>
+      <c r="H11" s="8">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="12">
+      <c r="C12" s="13"/>
+      <c r="D12" s="8">
         <v>61</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="12">
+      <c r="G12" s="13"/>
+      <c r="H12" s="8">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="12">
+      <c r="C13" s="13"/>
+      <c r="D13" s="8">
         <v>105</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="12">
+      <c r="G13" s="13"/>
+      <c r="H13" s="8">
         <v>255</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12">
+      <c r="C14" s="13"/>
+      <c r="D14" s="8">
         <v>5.19</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="12">
+      <c r="G14" s="13"/>
+      <c r="H14" s="8">
         <v>3.52</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="12">
+      <c r="C15" s="13"/>
+      <c r="D15" s="8">
         <v>0.27</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="12">
+      <c r="G15" s="13"/>
+      <c r="H15" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <v>78</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="9">
         <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13">
+      <c r="C17" s="14"/>
+      <c r="D17" s="9">
         <v>75.97</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="13">
+      <c r="G17" s="14"/>
+      <c r="H17" s="9">
         <v>247.39</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13">
+      <c r="C18" s="14"/>
+      <c r="D18" s="9">
         <v>76</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="13">
+      <c r="G18" s="14"/>
+      <c r="H18" s="9">
         <v>249</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13">
+      <c r="C19" s="14"/>
+      <c r="D19" s="9">
         <v>58</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="13">
+      <c r="G19" s="14"/>
+      <c r="H19" s="9">
         <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13">
+      <c r="C20" s="14"/>
+      <c r="D20" s="9">
         <v>102</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="13">
+      <c r="G20" s="14"/>
+      <c r="H20" s="9">
         <v>251</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="13">
+      <c r="C21" s="14"/>
+      <c r="D21" s="9">
         <v>4.67</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="13">
+      <c r="G21" s="14"/>
+      <c r="H21" s="9">
         <v>3.54</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="13">
+      <c r="C22" s="14"/>
+      <c r="D22" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="13">
+      <c r="G22" s="14"/>
+      <c r="H22" s="9">
         <v>0.06</v>
       </c>
     </row>
@@ -1022,16 +1122,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1054,582 +1154,582 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="10">
         <v>41974</v>
       </c>
       <c r="B3">
         <v>49</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>2014</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>42268</v>
       </c>
       <c r="E3">
         <v>39</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>2015</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="10">
         <v>41981</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14">
+      <c r="C4" s="16"/>
+      <c r="D4" s="10">
         <v>42275</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="10">
         <v>41988</v>
       </c>
       <c r="B5">
         <v>51</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14">
+      <c r="C5" s="16"/>
+      <c r="D5" s="10">
         <v>42282</v>
       </c>
       <c r="E5">
         <v>41</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="10">
         <v>41995</v>
       </c>
       <c r="B6">
         <v>52</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14">
+      <c r="C6" s="16"/>
+      <c r="D6" s="10">
         <v>42289</v>
       </c>
       <c r="E6">
         <v>42</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="10">
         <v>42002</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>2015</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>42296</v>
       </c>
       <c r="E7">
         <v>43</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="10">
         <v>42009</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14">
+      <c r="C8" s="16"/>
+      <c r="D8" s="10">
         <v>42303</v>
       </c>
       <c r="E8">
         <v>44</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="10">
         <v>42016</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14">
+      <c r="C9" s="16"/>
+      <c r="D9" s="10">
         <v>42310</v>
       </c>
       <c r="E9">
         <v>45</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="10">
         <v>42023</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14">
+      <c r="C10" s="16"/>
+      <c r="D10" s="10">
         <v>42317</v>
       </c>
       <c r="E10">
         <v>46</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="10">
         <v>42030</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14">
+      <c r="C11" s="16"/>
+      <c r="D11" s="10">
         <v>42324</v>
       </c>
       <c r="E11">
         <v>47</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="10">
         <v>42037</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14">
+      <c r="C12" s="16"/>
+      <c r="D12" s="10">
         <v>42331</v>
       </c>
       <c r="E12">
         <v>48</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="10">
         <v>42044</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14">
+      <c r="C13" s="16"/>
+      <c r="D13" s="10">
         <v>42338</v>
       </c>
       <c r="E13">
         <v>49</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="10">
         <v>42051</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14">
+      <c r="C14" s="16"/>
+      <c r="D14" s="10">
         <v>42345</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="10">
         <v>42058</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14">
+      <c r="C15" s="16"/>
+      <c r="D15" s="10">
         <v>42352</v>
       </c>
       <c r="E15">
         <v>51</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="10">
         <v>42065</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14">
+      <c r="C16" s="16"/>
+      <c r="D16" s="10">
         <v>42359</v>
       </c>
       <c r="E16">
         <v>52</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="10">
         <v>42072</v>
       </c>
       <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14">
+      <c r="C17" s="16"/>
+      <c r="D17" s="10">
         <v>42366</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="16">
         <v>2016</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="10">
         <v>42079</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="14">
+      <c r="C18" s="16"/>
+      <c r="D18" s="10">
         <v>42373</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="10">
         <v>42086</v>
       </c>
       <c r="B19">
         <v>13</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14">
+      <c r="C19" s="16"/>
+      <c r="D19" s="10">
         <v>42380</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="10">
         <v>42093</v>
       </c>
       <c r="B20">
         <v>14</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14">
+      <c r="C20" s="16"/>
+      <c r="D20" s="10">
         <v>42387</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="10">
         <v>42100</v>
       </c>
       <c r="B21">
         <v>15</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14">
+      <c r="C21" s="16"/>
+      <c r="D21" s="10">
         <v>42394</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="10">
         <v>42107</v>
       </c>
       <c r="B22">
         <v>16</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14">
+      <c r="C22" s="16"/>
+      <c r="D22" s="10">
         <v>42401</v>
       </c>
       <c r="E22">
         <v>6</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="10">
         <v>42114</v>
       </c>
       <c r="B23">
         <v>17</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14">
+      <c r="C23" s="16"/>
+      <c r="D23" s="10">
         <v>42408</v>
       </c>
       <c r="E23">
         <v>7</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="10">
         <v>42121</v>
       </c>
       <c r="B24">
         <v>18</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14">
+      <c r="C24" s="16"/>
+      <c r="D24" s="10">
         <v>42422</v>
       </c>
       <c r="E24">
         <v>8</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="10">
         <v>42128</v>
       </c>
       <c r="B25">
         <v>19</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14">
+      <c r="C25" s="16"/>
+      <c r="D25" s="10">
         <v>42429</v>
       </c>
       <c r="E25">
         <v>9</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="10">
         <v>42135</v>
       </c>
       <c r="B26">
         <v>20</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14">
+      <c r="C26" s="16"/>
+      <c r="D26" s="10">
         <v>42436</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="10">
         <v>42142</v>
       </c>
       <c r="B27">
         <v>21</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14">
+      <c r="C27" s="16"/>
+      <c r="D27" s="10">
         <v>42443</v>
       </c>
       <c r="E27">
         <v>11</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="10">
         <v>42149</v>
       </c>
       <c r="B28">
         <v>22</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14">
+      <c r="C28" s="16"/>
+      <c r="D28" s="10">
         <v>42450</v>
       </c>
       <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="10">
         <v>42156</v>
       </c>
       <c r="B29">
         <v>23</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="14">
+      <c r="C29" s="16"/>
+      <c r="D29" s="10">
         <v>42457</v>
       </c>
       <c r="E29">
         <v>13</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="10">
         <v>42163</v>
       </c>
       <c r="B30">
         <v>24</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="14">
+      <c r="C30" s="16"/>
+      <c r="D30" s="10">
         <v>42464</v>
       </c>
       <c r="E30">
         <v>14</v>
       </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="14">
+      <c r="A31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10">
         <v>42471</v>
       </c>
       <c r="E31">
         <v>15</v>
       </c>
-      <c r="F31" s="15"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="C32" s="16"/>
+      <c r="A32" s="10"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="C33" s="16"/>
+      <c r="A33" s="10"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="10"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="C35" s="16"/>
+      <c r="A35" s="10"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="C36" s="16"/>
+      <c r="A36" s="10"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="C37" s="16"/>
+      <c r="A37" s="10"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="C38" s="16"/>
+      <c r="A38" s="10"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="10"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="C40" s="16"/>
+      <c r="A40" s="10"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="10"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="C42" s="16"/>
+      <c r="A42" s="10"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="C43" s="16"/>
+      <c r="A43" s="10"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="C44" s="16"/>
+      <c r="A44" s="10"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="10"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="10"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="10"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="10"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="10"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="10"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="10"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="10"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="10"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="10"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="10"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="10"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="10"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="10"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="10"/>
       <c r="C59" s="2"/>
     </row>
   </sheetData>
@@ -1649,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2114,4 +2214,170 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:B30">
+    <sortState ref="B3:B30">
+      <sortCondition ref="B2:B30"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>